--- a/data_original/中国城市同性恋数据.xlsx
+++ b/data_original/中国城市同性恋数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\科学院\课题组-王磊\博士课题\猴痘输入风险\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15813\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA86A9A4-FDEE-4AF1-83E3-B62EC66714C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79336DA6-7F33-40A4-8622-26C4C7224F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>2007</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t>北京</t>
@@ -747,317 +759,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CT1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>101</v>
-      </c>
       <c r="CU1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="CV1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="CW1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
@@ -2583,6 +2595,1226 @@
       </c>
       <c r="CW6">
         <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12508</v>
+      </c>
+      <c r="C7">
+        <v>7829</v>
+      </c>
+      <c r="D7">
+        <v>6877</v>
+      </c>
+      <c r="E7">
+        <v>6144</v>
+      </c>
+      <c r="F7">
+        <v>5313</v>
+      </c>
+      <c r="G7">
+        <v>4794</v>
+      </c>
+      <c r="H7">
+        <v>4013</v>
+      </c>
+      <c r="I7">
+        <v>3803</v>
+      </c>
+      <c r="J7">
+        <v>3468</v>
+      </c>
+      <c r="K7">
+        <v>3466</v>
+      </c>
+      <c r="L7">
+        <v>3442</v>
+      </c>
+      <c r="M7">
+        <v>3292</v>
+      </c>
+      <c r="N7">
+        <v>3073</v>
+      </c>
+      <c r="O7">
+        <v>3014</v>
+      </c>
+      <c r="P7">
+        <v>3000</v>
+      </c>
+      <c r="Q7">
+        <v>2922</v>
+      </c>
+      <c r="R7">
+        <v>2774</v>
+      </c>
+      <c r="S7">
+        <v>2350</v>
+      </c>
+      <c r="T7">
+        <v>2291</v>
+      </c>
+      <c r="U7">
+        <v>2180</v>
+      </c>
+      <c r="V7">
+        <v>1973</v>
+      </c>
+      <c r="W7">
+        <v>1860</v>
+      </c>
+      <c r="X7">
+        <v>1855</v>
+      </c>
+      <c r="Y7">
+        <v>1847</v>
+      </c>
+      <c r="Z7">
+        <v>1685</v>
+      </c>
+      <c r="AA7">
+        <v>1520</v>
+      </c>
+      <c r="AB7">
+        <v>1519</v>
+      </c>
+      <c r="AC7">
+        <v>1509</v>
+      </c>
+      <c r="AD7">
+        <v>1508</v>
+      </c>
+      <c r="AE7">
+        <v>1492</v>
+      </c>
+      <c r="AF7">
+        <v>1448</v>
+      </c>
+      <c r="AG7">
+        <v>1386</v>
+      </c>
+      <c r="AH7">
+        <v>1258</v>
+      </c>
+      <c r="AI7">
+        <v>1174</v>
+      </c>
+      <c r="AJ7">
+        <v>1108</v>
+      </c>
+      <c r="AK7">
+        <v>1106</v>
+      </c>
+      <c r="AL7">
+        <v>1010</v>
+      </c>
+      <c r="AM7">
+        <v>990</v>
+      </c>
+      <c r="AN7">
+        <v>987</v>
+      </c>
+      <c r="AO7">
+        <v>982</v>
+      </c>
+      <c r="AP7">
+        <v>919</v>
+      </c>
+      <c r="AQ7">
+        <v>918</v>
+      </c>
+      <c r="AR7">
+        <v>869</v>
+      </c>
+      <c r="AS7">
+        <v>824</v>
+      </c>
+      <c r="AT7">
+        <v>805</v>
+      </c>
+      <c r="AU7">
+        <v>798</v>
+      </c>
+      <c r="AV7">
+        <v>771</v>
+      </c>
+      <c r="AW7">
+        <v>754</v>
+      </c>
+      <c r="AX7">
+        <v>751</v>
+      </c>
+      <c r="AY7">
+        <v>746</v>
+      </c>
+      <c r="AZ7">
+        <v>676</v>
+      </c>
+      <c r="BA7">
+        <v>661</v>
+      </c>
+      <c r="BB7">
+        <v>658</v>
+      </c>
+      <c r="BC7">
+        <v>643</v>
+      </c>
+      <c r="BD7">
+        <v>625</v>
+      </c>
+      <c r="BE7">
+        <v>613</v>
+      </c>
+      <c r="BF7">
+        <v>610</v>
+      </c>
+      <c r="BG7">
+        <v>609</v>
+      </c>
+      <c r="BH7">
+        <v>581</v>
+      </c>
+      <c r="BI7">
+        <v>566</v>
+      </c>
+      <c r="BJ7">
+        <v>563</v>
+      </c>
+      <c r="BK7">
+        <v>550</v>
+      </c>
+      <c r="BL7">
+        <v>525</v>
+      </c>
+      <c r="BM7">
+        <v>521</v>
+      </c>
+      <c r="BN7">
+        <v>519</v>
+      </c>
+      <c r="BO7">
+        <v>512</v>
+      </c>
+      <c r="BP7">
+        <v>511</v>
+      </c>
+      <c r="BQ7">
+        <v>505</v>
+      </c>
+      <c r="BR7">
+        <v>503</v>
+      </c>
+      <c r="BS7">
+        <v>501</v>
+      </c>
+      <c r="BT7">
+        <v>500</v>
+      </c>
+      <c r="BU7">
+        <v>476</v>
+      </c>
+      <c r="BV7">
+        <v>472</v>
+      </c>
+      <c r="BW7">
+        <v>469</v>
+      </c>
+      <c r="BX7">
+        <v>466</v>
+      </c>
+      <c r="BY7">
+        <v>460</v>
+      </c>
+      <c r="BZ7">
+        <v>458</v>
+      </c>
+      <c r="CA7">
+        <v>448</v>
+      </c>
+      <c r="CB7">
+        <v>441</v>
+      </c>
+      <c r="CC7">
+        <v>440</v>
+      </c>
+      <c r="CD7">
+        <v>440</v>
+      </c>
+      <c r="CE7">
+        <v>426</v>
+      </c>
+      <c r="CF7">
+        <v>421</v>
+      </c>
+      <c r="CG7">
+        <v>413</v>
+      </c>
+      <c r="CH7">
+        <v>409</v>
+      </c>
+      <c r="CI7">
+        <v>402</v>
+      </c>
+      <c r="CJ7">
+        <v>397</v>
+      </c>
+      <c r="CK7">
+        <v>396</v>
+      </c>
+      <c r="CL7">
+        <v>392</v>
+      </c>
+      <c r="CM7">
+        <v>390</v>
+      </c>
+      <c r="CN7">
+        <v>386</v>
+      </c>
+      <c r="CO7">
+        <v>378</v>
+      </c>
+      <c r="CP7">
+        <v>370</v>
+      </c>
+      <c r="CQ7">
+        <v>364</v>
+      </c>
+      <c r="CR7">
+        <v>360</v>
+      </c>
+      <c r="CS7">
+        <v>356</v>
+      </c>
+      <c r="CT7">
+        <v>350</v>
+      </c>
+      <c r="CU7">
+        <v>349</v>
+      </c>
+      <c r="CV7">
+        <v>347</v>
+      </c>
+      <c r="CW7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9817</v>
+      </c>
+      <c r="C8">
+        <v>6672</v>
+      </c>
+      <c r="D8">
+        <v>5209</v>
+      </c>
+      <c r="E8">
+        <v>5410</v>
+      </c>
+      <c r="F8">
+        <v>4649</v>
+      </c>
+      <c r="G8">
+        <v>4046</v>
+      </c>
+      <c r="H8">
+        <v>3242</v>
+      </c>
+      <c r="I8">
+        <v>2890</v>
+      </c>
+      <c r="J8">
+        <v>2595</v>
+      </c>
+      <c r="K8">
+        <v>2532</v>
+      </c>
+      <c r="L8">
+        <v>2333</v>
+      </c>
+      <c r="M8">
+        <v>2591</v>
+      </c>
+      <c r="N8">
+        <v>2477</v>
+      </c>
+      <c r="O8">
+        <v>2472</v>
+      </c>
+      <c r="P8">
+        <v>2164</v>
+      </c>
+      <c r="Q8">
+        <v>1834</v>
+      </c>
+      <c r="R8">
+        <v>2099</v>
+      </c>
+      <c r="S8">
+        <v>1670</v>
+      </c>
+      <c r="T8">
+        <v>1785</v>
+      </c>
+      <c r="U8">
+        <v>1842</v>
+      </c>
+      <c r="V8">
+        <v>1662</v>
+      </c>
+      <c r="W8">
+        <v>1477</v>
+      </c>
+      <c r="X8">
+        <v>1348</v>
+      </c>
+      <c r="Y8">
+        <v>1452</v>
+      </c>
+      <c r="Z8">
+        <v>1441</v>
+      </c>
+      <c r="AA8">
+        <v>1190</v>
+      </c>
+      <c r="AB8">
+        <v>1078</v>
+      </c>
+      <c r="AC8">
+        <v>1065</v>
+      </c>
+      <c r="AD8">
+        <v>1190</v>
+      </c>
+      <c r="AE8">
+        <v>1193</v>
+      </c>
+      <c r="AF8">
+        <v>1174</v>
+      </c>
+      <c r="AG8">
+        <v>1067</v>
+      </c>
+      <c r="AH8">
+        <v>1099</v>
+      </c>
+      <c r="AI8">
+        <v>918</v>
+      </c>
+      <c r="AJ8">
+        <v>801</v>
+      </c>
+      <c r="AK8">
+        <v>860</v>
+      </c>
+      <c r="AL8">
+        <v>812</v>
+      </c>
+      <c r="AM8">
+        <v>756</v>
+      </c>
+      <c r="AN8">
+        <v>812</v>
+      </c>
+      <c r="AO8">
+        <v>767</v>
+      </c>
+      <c r="AP8">
+        <v>704</v>
+      </c>
+      <c r="AQ8">
+        <v>761</v>
+      </c>
+      <c r="AR8">
+        <v>633</v>
+      </c>
+      <c r="AS8">
+        <v>516</v>
+      </c>
+      <c r="AT8">
+        <v>612</v>
+      </c>
+      <c r="AU8">
+        <v>664</v>
+      </c>
+      <c r="AV8">
+        <v>605</v>
+      </c>
+      <c r="AW8">
+        <v>672</v>
+      </c>
+      <c r="AX8">
+        <v>607</v>
+      </c>
+      <c r="AY8">
+        <v>439</v>
+      </c>
+      <c r="AZ8">
+        <v>476</v>
+      </c>
+      <c r="BA8">
+        <v>526</v>
+      </c>
+      <c r="BB8">
+        <v>500</v>
+      </c>
+      <c r="BC8">
+        <v>542</v>
+      </c>
+      <c r="BD8">
+        <v>520</v>
+      </c>
+      <c r="BE8">
+        <v>463</v>
+      </c>
+      <c r="BF8">
+        <v>491</v>
+      </c>
+      <c r="BG8">
+        <v>479</v>
+      </c>
+      <c r="BH8">
+        <v>554</v>
+      </c>
+      <c r="BI8">
+        <v>417</v>
+      </c>
+      <c r="BJ8">
+        <v>445</v>
+      </c>
+      <c r="BK8">
+        <v>434</v>
+      </c>
+      <c r="BL8">
+        <v>421</v>
+      </c>
+      <c r="BM8">
+        <v>417</v>
+      </c>
+      <c r="BN8">
+        <v>362</v>
+      </c>
+      <c r="BO8">
+        <v>439</v>
+      </c>
+      <c r="BP8">
+        <v>395</v>
+      </c>
+      <c r="BQ8">
+        <v>362</v>
+      </c>
+      <c r="BR8">
+        <v>400</v>
+      </c>
+      <c r="BS8">
+        <v>377</v>
+      </c>
+      <c r="BT8">
+        <v>355</v>
+      </c>
+      <c r="BU8">
+        <v>347</v>
+      </c>
+      <c r="BV8">
+        <v>314</v>
+      </c>
+      <c r="BW8">
+        <v>362</v>
+      </c>
+      <c r="BX8">
+        <v>337</v>
+      </c>
+      <c r="BY8">
+        <v>343</v>
+      </c>
+      <c r="BZ8">
+        <v>321</v>
+      </c>
+      <c r="CA8">
+        <v>362</v>
+      </c>
+      <c r="CB8">
+        <v>325</v>
+      </c>
+      <c r="CC8">
+        <v>352</v>
+      </c>
+      <c r="CD8">
+        <v>345</v>
+      </c>
+      <c r="CE8">
+        <v>384</v>
+      </c>
+      <c r="CF8">
+        <v>341</v>
+      </c>
+      <c r="CG8">
+        <v>311</v>
+      </c>
+      <c r="CH8">
+        <v>343</v>
+      </c>
+      <c r="CI8">
+        <v>359</v>
+      </c>
+      <c r="CJ8">
+        <v>374</v>
+      </c>
+      <c r="CK8">
+        <v>254</v>
+      </c>
+      <c r="CL8">
+        <v>296</v>
+      </c>
+      <c r="CM8">
+        <v>357</v>
+      </c>
+      <c r="CN8">
+        <v>333</v>
+      </c>
+      <c r="CO8">
+        <v>238</v>
+      </c>
+      <c r="CP8">
+        <v>230</v>
+      </c>
+      <c r="CQ8">
+        <v>287</v>
+      </c>
+      <c r="CR8">
+        <v>346</v>
+      </c>
+      <c r="CS8">
+        <v>273</v>
+      </c>
+      <c r="CT8">
+        <v>322</v>
+      </c>
+      <c r="CU8">
+        <v>290</v>
+      </c>
+      <c r="CV8">
+        <v>250</v>
+      </c>
+      <c r="CW8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7372</v>
+      </c>
+      <c r="C9">
+        <v>4840</v>
+      </c>
+      <c r="D9">
+        <v>3650</v>
+      </c>
+      <c r="E9">
+        <v>4184</v>
+      </c>
+      <c r="F9">
+        <v>3372</v>
+      </c>
+      <c r="G9">
+        <v>2728</v>
+      </c>
+      <c r="H9">
+        <v>2272</v>
+      </c>
+      <c r="I9">
+        <v>1728</v>
+      </c>
+      <c r="J9">
+        <v>1250</v>
+      </c>
+      <c r="K9">
+        <v>1796</v>
+      </c>
+      <c r="L9">
+        <v>1490</v>
+      </c>
+      <c r="M9">
+        <v>2035</v>
+      </c>
+      <c r="N9">
+        <v>1653</v>
+      </c>
+      <c r="O9">
+        <v>1747</v>
+      </c>
+      <c r="P9">
+        <v>1410</v>
+      </c>
+      <c r="Q9">
+        <v>1139</v>
+      </c>
+      <c r="R9">
+        <v>1586</v>
+      </c>
+      <c r="S9">
+        <v>845</v>
+      </c>
+      <c r="T9">
+        <v>1218</v>
+      </c>
+      <c r="U9">
+        <v>1244</v>
+      </c>
+      <c r="V9">
+        <v>1291</v>
+      </c>
+      <c r="W9">
+        <v>1078</v>
+      </c>
+      <c r="X9">
+        <v>980</v>
+      </c>
+      <c r="Y9">
+        <v>917</v>
+      </c>
+      <c r="Z9">
+        <v>1087</v>
+      </c>
+      <c r="AA9">
+        <v>847</v>
+      </c>
+      <c r="AB9">
+        <v>738</v>
+      </c>
+      <c r="AC9">
+        <v>715</v>
+      </c>
+      <c r="AD9">
+        <v>795</v>
+      </c>
+      <c r="AE9">
+        <v>828</v>
+      </c>
+      <c r="AF9">
+        <v>817</v>
+      </c>
+      <c r="AG9">
+        <v>681</v>
+      </c>
+      <c r="AH9">
+        <v>684</v>
+      </c>
+      <c r="AI9">
+        <v>521</v>
+      </c>
+      <c r="AJ9">
+        <v>642</v>
+      </c>
+      <c r="AK9">
+        <v>574</v>
+      </c>
+      <c r="AL9">
+        <v>507</v>
+      </c>
+      <c r="AM9">
+        <v>448</v>
+      </c>
+      <c r="AN9">
+        <v>462</v>
+      </c>
+      <c r="AO9">
+        <v>399</v>
+      </c>
+      <c r="AP9">
+        <v>434</v>
+      </c>
+      <c r="AQ9">
+        <v>549</v>
+      </c>
+      <c r="AR9">
+        <v>416</v>
+      </c>
+      <c r="AS9">
+        <v>354</v>
+      </c>
+      <c r="AT9">
+        <v>366</v>
+      </c>
+      <c r="AU9">
+        <v>476</v>
+      </c>
+      <c r="AV9">
+        <v>400</v>
+      </c>
+      <c r="AW9">
+        <v>442</v>
+      </c>
+      <c r="AX9">
+        <v>421</v>
+      </c>
+      <c r="AY9">
+        <v>271</v>
+      </c>
+      <c r="AZ9">
+        <v>184</v>
+      </c>
+      <c r="BA9">
+        <v>397</v>
+      </c>
+      <c r="BB9">
+        <v>310</v>
+      </c>
+      <c r="BC9">
+        <v>295</v>
+      </c>
+      <c r="BD9">
+        <v>340</v>
+      </c>
+      <c r="BE9">
+        <v>272</v>
+      </c>
+      <c r="BF9">
+        <v>265</v>
+      </c>
+      <c r="BG9">
+        <v>290</v>
+      </c>
+      <c r="BH9">
+        <v>297</v>
+      </c>
+      <c r="BI9">
+        <v>265</v>
+      </c>
+      <c r="BJ9">
+        <v>257</v>
+      </c>
+      <c r="BK9">
+        <v>255</v>
+      </c>
+      <c r="BL9">
+        <v>303</v>
+      </c>
+      <c r="BM9">
+        <v>304</v>
+      </c>
+      <c r="BN9">
+        <v>250</v>
+      </c>
+      <c r="BO9">
+        <v>267</v>
+      </c>
+      <c r="BP9">
+        <v>209</v>
+      </c>
+      <c r="BQ9">
+        <v>223</v>
+      </c>
+      <c r="BR9">
+        <v>180</v>
+      </c>
+      <c r="BS9">
+        <v>196</v>
+      </c>
+      <c r="BT9">
+        <v>223</v>
+      </c>
+      <c r="BU9">
+        <v>237</v>
+      </c>
+      <c r="BV9">
+        <v>212</v>
+      </c>
+      <c r="BW9">
+        <v>125</v>
+      </c>
+      <c r="BX9">
+        <v>237</v>
+      </c>
+      <c r="BY9">
+        <v>179</v>
+      </c>
+      <c r="BZ9">
+        <v>244</v>
+      </c>
+      <c r="CA9">
+        <v>185</v>
+      </c>
+      <c r="CB9">
+        <v>226</v>
+      </c>
+      <c r="CC9">
+        <v>189</v>
+      </c>
+      <c r="CD9">
+        <v>137</v>
+      </c>
+      <c r="CE9">
+        <v>271</v>
+      </c>
+      <c r="CF9">
+        <v>191</v>
+      </c>
+      <c r="CG9">
+        <v>182</v>
+      </c>
+      <c r="CH9">
+        <v>199</v>
+      </c>
+      <c r="CI9">
+        <v>191</v>
+      </c>
+      <c r="CJ9">
+        <v>254</v>
+      </c>
+      <c r="CK9">
+        <v>147</v>
+      </c>
+      <c r="CL9">
+        <v>191</v>
+      </c>
+      <c r="CM9">
+        <v>287</v>
+      </c>
+      <c r="CN9">
+        <v>217</v>
+      </c>
+      <c r="CO9">
+        <v>112</v>
+      </c>
+      <c r="CP9">
+        <v>145</v>
+      </c>
+      <c r="CQ9">
+        <v>211</v>
+      </c>
+      <c r="CR9">
+        <v>188</v>
+      </c>
+      <c r="CS9">
+        <v>163</v>
+      </c>
+      <c r="CT9">
+        <v>176</v>
+      </c>
+      <c r="CU9">
+        <v>208</v>
+      </c>
+      <c r="CV9">
+        <v>165</v>
+      </c>
+      <c r="CW9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5405</v>
+      </c>
+      <c r="C10">
+        <v>4151</v>
+      </c>
+      <c r="D10">
+        <v>2511</v>
+      </c>
+      <c r="E10">
+        <v>3155</v>
+      </c>
+      <c r="F10">
+        <v>2629</v>
+      </c>
+      <c r="G10">
+        <v>1843</v>
+      </c>
+      <c r="H10">
+        <v>1649</v>
+      </c>
+      <c r="I10">
+        <v>1355</v>
+      </c>
+      <c r="J10">
+        <v>739</v>
+      </c>
+      <c r="K10">
+        <v>1369</v>
+      </c>
+      <c r="L10">
+        <v>977</v>
+      </c>
+      <c r="M10">
+        <v>1710</v>
+      </c>
+      <c r="N10">
+        <v>1061</v>
+      </c>
+      <c r="O10">
+        <v>1222</v>
+      </c>
+      <c r="P10">
+        <v>1101</v>
+      </c>
+      <c r="Q10">
+        <v>745</v>
+      </c>
+      <c r="R10">
+        <v>1191</v>
+      </c>
+      <c r="S10">
+        <v>437</v>
+      </c>
+      <c r="T10">
+        <v>911</v>
+      </c>
+      <c r="U10">
+        <v>816</v>
+      </c>
+      <c r="V10">
+        <v>2681</v>
+      </c>
+      <c r="W10">
+        <v>857</v>
+      </c>
+      <c r="X10">
+        <v>737</v>
+      </c>
+      <c r="Y10">
+        <v>682</v>
+      </c>
+      <c r="Z10">
+        <v>825</v>
+      </c>
+      <c r="AA10">
+        <v>704</v>
+      </c>
+      <c r="AB10">
+        <v>749</v>
+      </c>
+      <c r="AC10">
+        <v>471</v>
+      </c>
+      <c r="AD10">
+        <v>742</v>
+      </c>
+      <c r="AE10">
+        <v>682</v>
+      </c>
+      <c r="AF10">
+        <v>587</v>
+      </c>
+      <c r="AG10">
+        <v>580</v>
+      </c>
+      <c r="AH10">
+        <v>509</v>
+      </c>
+      <c r="AI10">
+        <v>367</v>
+      </c>
+      <c r="AJ10">
+        <v>479</v>
+      </c>
+      <c r="AK10">
+        <v>399</v>
+      </c>
+      <c r="AL10">
+        <v>351</v>
+      </c>
+      <c r="AM10">
+        <v>314</v>
+      </c>
+      <c r="AN10">
+        <v>405</v>
+      </c>
+      <c r="AO10">
+        <v>298</v>
+      </c>
+      <c r="AP10">
+        <v>316</v>
+      </c>
+      <c r="AQ10">
+        <v>371</v>
+      </c>
+      <c r="AR10">
+        <v>299</v>
+      </c>
+      <c r="AS10">
+        <v>257</v>
+      </c>
+      <c r="AT10">
+        <v>237</v>
+      </c>
+      <c r="AU10">
+        <v>375</v>
+      </c>
+      <c r="AV10">
+        <v>288</v>
+      </c>
+      <c r="AW10">
+        <v>285</v>
+      </c>
+      <c r="AX10">
+        <v>308</v>
+      </c>
+      <c r="AY10">
+        <v>143</v>
+      </c>
+      <c r="AZ10">
+        <v>94</v>
+      </c>
+      <c r="BA10">
+        <v>285</v>
+      </c>
+      <c r="BB10">
+        <v>255</v>
+      </c>
+      <c r="BC10">
+        <v>248</v>
+      </c>
+      <c r="BD10">
+        <v>228</v>
+      </c>
+      <c r="BE10">
+        <v>178</v>
+      </c>
+      <c r="BF10">
+        <v>187</v>
+      </c>
+      <c r="BG10">
+        <v>199</v>
+      </c>
+      <c r="BH10">
+        <v>235</v>
+      </c>
+      <c r="BI10">
+        <v>202</v>
+      </c>
+      <c r="BJ10">
+        <v>245</v>
+      </c>
+      <c r="BK10">
+        <v>164</v>
+      </c>
+      <c r="BL10">
+        <v>239</v>
+      </c>
+      <c r="BM10">
+        <v>203</v>
+      </c>
+      <c r="BN10">
+        <v>164</v>
+      </c>
+      <c r="BO10">
+        <v>202</v>
+      </c>
+      <c r="BP10">
+        <v>133</v>
+      </c>
+      <c r="BQ10">
+        <v>130</v>
+      </c>
+      <c r="BR10">
+        <v>148</v>
+      </c>
+      <c r="BS10">
+        <v>158</v>
+      </c>
+      <c r="BT10">
+        <v>172</v>
+      </c>
+      <c r="BU10">
+        <v>167</v>
+      </c>
+      <c r="BV10">
+        <v>146</v>
+      </c>
+      <c r="BW10">
+        <v>70</v>
+      </c>
+      <c r="BX10">
+        <v>187</v>
+      </c>
+      <c r="BY10">
+        <v>115</v>
+      </c>
+      <c r="BZ10">
+        <v>128</v>
+      </c>
+      <c r="CA10">
+        <v>185</v>
+      </c>
+      <c r="CB10">
+        <v>157</v>
+      </c>
+      <c r="CC10">
+        <v>143</v>
+      </c>
+      <c r="CD10">
+        <v>71</v>
+      </c>
+      <c r="CE10">
+        <v>169</v>
+      </c>
+      <c r="CF10">
+        <v>132</v>
+      </c>
+      <c r="CG10">
+        <v>109</v>
+      </c>
+      <c r="CH10">
+        <v>155</v>
+      </c>
+      <c r="CI10">
+        <v>121</v>
+      </c>
+      <c r="CJ10">
+        <v>154</v>
+      </c>
+      <c r="CK10">
+        <v>89</v>
+      </c>
+      <c r="CL10">
+        <v>128</v>
+      </c>
+      <c r="CM10">
+        <v>179</v>
+      </c>
+      <c r="CN10">
+        <v>149</v>
+      </c>
+      <c r="CO10">
+        <v>51</v>
+      </c>
+      <c r="CP10">
+        <v>99</v>
+      </c>
+      <c r="CQ10">
+        <v>143</v>
+      </c>
+      <c r="CR10">
+        <v>114</v>
+      </c>
+      <c r="CS10">
+        <v>130</v>
+      </c>
+      <c r="CT10">
+        <v>133</v>
+      </c>
+      <c r="CU10">
+        <v>154</v>
+      </c>
+      <c r="CV10">
+        <v>138</v>
+      </c>
+      <c r="CW10">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data_original/中国城市同性恋数据.xlsx
+++ b/data_original/中国城市同性恋数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15813\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\MpoxPredict\data_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79336DA6-7F33-40A4-8622-26C4C7224F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D8341B-46FC-4136-A8C4-F333810C05E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>2007</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
   </si>
   <si>
     <t>北京</t>
@@ -759,317 +756,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW10"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>58</v>
       </c>
-      <c r="AY1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>65</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>66</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>67</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>68</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>69</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>70</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>71</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>72</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>73</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>75</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>76</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>77</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>78</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>79</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>80</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>81</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>82</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>83</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>84</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>85</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>86</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>87</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>88</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>89</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>90</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>91</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>92</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>93</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>94</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>95</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>96</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>97</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>98</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>99</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>100</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>101</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>102</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>103</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>104</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>105</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>106</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>107</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
@@ -3510,311 +3507,6 @@
       </c>
       <c r="CW9">
         <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5405</v>
-      </c>
-      <c r="C10">
-        <v>4151</v>
-      </c>
-      <c r="D10">
-        <v>2511</v>
-      </c>
-      <c r="E10">
-        <v>3155</v>
-      </c>
-      <c r="F10">
-        <v>2629</v>
-      </c>
-      <c r="G10">
-        <v>1843</v>
-      </c>
-      <c r="H10">
-        <v>1649</v>
-      </c>
-      <c r="I10">
-        <v>1355</v>
-      </c>
-      <c r="J10">
-        <v>739</v>
-      </c>
-      <c r="K10">
-        <v>1369</v>
-      </c>
-      <c r="L10">
-        <v>977</v>
-      </c>
-      <c r="M10">
-        <v>1710</v>
-      </c>
-      <c r="N10">
-        <v>1061</v>
-      </c>
-      <c r="O10">
-        <v>1222</v>
-      </c>
-      <c r="P10">
-        <v>1101</v>
-      </c>
-      <c r="Q10">
-        <v>745</v>
-      </c>
-      <c r="R10">
-        <v>1191</v>
-      </c>
-      <c r="S10">
-        <v>437</v>
-      </c>
-      <c r="T10">
-        <v>911</v>
-      </c>
-      <c r="U10">
-        <v>816</v>
-      </c>
-      <c r="V10">
-        <v>2681</v>
-      </c>
-      <c r="W10">
-        <v>857</v>
-      </c>
-      <c r="X10">
-        <v>737</v>
-      </c>
-      <c r="Y10">
-        <v>682</v>
-      </c>
-      <c r="Z10">
-        <v>825</v>
-      </c>
-      <c r="AA10">
-        <v>704</v>
-      </c>
-      <c r="AB10">
-        <v>749</v>
-      </c>
-      <c r="AC10">
-        <v>471</v>
-      </c>
-      <c r="AD10">
-        <v>742</v>
-      </c>
-      <c r="AE10">
-        <v>682</v>
-      </c>
-      <c r="AF10">
-        <v>587</v>
-      </c>
-      <c r="AG10">
-        <v>580</v>
-      </c>
-      <c r="AH10">
-        <v>509</v>
-      </c>
-      <c r="AI10">
-        <v>367</v>
-      </c>
-      <c r="AJ10">
-        <v>479</v>
-      </c>
-      <c r="AK10">
-        <v>399</v>
-      </c>
-      <c r="AL10">
-        <v>351</v>
-      </c>
-      <c r="AM10">
-        <v>314</v>
-      </c>
-      <c r="AN10">
-        <v>405</v>
-      </c>
-      <c r="AO10">
-        <v>298</v>
-      </c>
-      <c r="AP10">
-        <v>316</v>
-      </c>
-      <c r="AQ10">
-        <v>371</v>
-      </c>
-      <c r="AR10">
-        <v>299</v>
-      </c>
-      <c r="AS10">
-        <v>257</v>
-      </c>
-      <c r="AT10">
-        <v>237</v>
-      </c>
-      <c r="AU10">
-        <v>375</v>
-      </c>
-      <c r="AV10">
-        <v>288</v>
-      </c>
-      <c r="AW10">
-        <v>285</v>
-      </c>
-      <c r="AX10">
-        <v>308</v>
-      </c>
-      <c r="AY10">
-        <v>143</v>
-      </c>
-      <c r="AZ10">
-        <v>94</v>
-      </c>
-      <c r="BA10">
-        <v>285</v>
-      </c>
-      <c r="BB10">
-        <v>255</v>
-      </c>
-      <c r="BC10">
-        <v>248</v>
-      </c>
-      <c r="BD10">
-        <v>228</v>
-      </c>
-      <c r="BE10">
-        <v>178</v>
-      </c>
-      <c r="BF10">
-        <v>187</v>
-      </c>
-      <c r="BG10">
-        <v>199</v>
-      </c>
-      <c r="BH10">
-        <v>235</v>
-      </c>
-      <c r="BI10">
-        <v>202</v>
-      </c>
-      <c r="BJ10">
-        <v>245</v>
-      </c>
-      <c r="BK10">
-        <v>164</v>
-      </c>
-      <c r="BL10">
-        <v>239</v>
-      </c>
-      <c r="BM10">
-        <v>203</v>
-      </c>
-      <c r="BN10">
-        <v>164</v>
-      </c>
-      <c r="BO10">
-        <v>202</v>
-      </c>
-      <c r="BP10">
-        <v>133</v>
-      </c>
-      <c r="BQ10">
-        <v>130</v>
-      </c>
-      <c r="BR10">
-        <v>148</v>
-      </c>
-      <c r="BS10">
-        <v>158</v>
-      </c>
-      <c r="BT10">
-        <v>172</v>
-      </c>
-      <c r="BU10">
-        <v>167</v>
-      </c>
-      <c r="BV10">
-        <v>146</v>
-      </c>
-      <c r="BW10">
-        <v>70</v>
-      </c>
-      <c r="BX10">
-        <v>187</v>
-      </c>
-      <c r="BY10">
-        <v>115</v>
-      </c>
-      <c r="BZ10">
-        <v>128</v>
-      </c>
-      <c r="CA10">
-        <v>185</v>
-      </c>
-      <c r="CB10">
-        <v>157</v>
-      </c>
-      <c r="CC10">
-        <v>143</v>
-      </c>
-      <c r="CD10">
-        <v>71</v>
-      </c>
-      <c r="CE10">
-        <v>169</v>
-      </c>
-      <c r="CF10">
-        <v>132</v>
-      </c>
-      <c r="CG10">
-        <v>109</v>
-      </c>
-      <c r="CH10">
-        <v>155</v>
-      </c>
-      <c r="CI10">
-        <v>121</v>
-      </c>
-      <c r="CJ10">
-        <v>154</v>
-      </c>
-      <c r="CK10">
-        <v>89</v>
-      </c>
-      <c r="CL10">
-        <v>128</v>
-      </c>
-      <c r="CM10">
-        <v>179</v>
-      </c>
-      <c r="CN10">
-        <v>149</v>
-      </c>
-      <c r="CO10">
-        <v>51</v>
-      </c>
-      <c r="CP10">
-        <v>99</v>
-      </c>
-      <c r="CQ10">
-        <v>143</v>
-      </c>
-      <c r="CR10">
-        <v>114</v>
-      </c>
-      <c r="CS10">
-        <v>130</v>
-      </c>
-      <c r="CT10">
-        <v>133</v>
-      </c>
-      <c r="CU10">
-        <v>154</v>
-      </c>
-      <c r="CV10">
-        <v>138</v>
-      </c>
-      <c r="CW10">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
